--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,7 +480,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
